--- a/data/logs/waitingScreen.xlsx
+++ b/data/logs/waitingScreen.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>1</col>
@@ -204,14 +204,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -232,14 +232,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -260,14 +260,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -288,14 +288,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -316,14 +316,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -344,14 +344,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -372,14 +372,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -400,14 +400,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -428,14 +428,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -456,14 +456,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -484,14 +484,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -512,14 +512,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -540,14 +540,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -568,14 +568,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -596,14 +596,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -624,14 +624,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -652,14 +652,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -680,14 +680,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -708,14 +708,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -736,14 +736,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -764,14 +764,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -792,14 +792,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -820,14 +820,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -848,14 +848,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -876,14 +876,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -904,14 +904,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -932,14 +932,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -960,14 +960,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -988,14 +988,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1016,14 +1016,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1044,14 +1044,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1072,14 +1072,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1100,14 +1100,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1128,14 +1128,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1156,14 +1156,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1184,14 +1184,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1212,14 +1212,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1240,14 +1240,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1268,14 +1268,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1296,14 +1296,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1324,14 +1324,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId41"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1352,14 +1352,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId42"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1380,14 +1380,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId43"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1408,14 +1408,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId44"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1436,14 +1436,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId45"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1464,14 +1464,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId46"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1492,14 +1492,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId47"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1520,14 +1520,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId48"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1548,14 +1548,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId49"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1576,14 +1576,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId50"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1604,14 +1604,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId51"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1632,14 +1632,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId52"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1660,14 +1660,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId53"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1688,14 +1688,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId54"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1716,14 +1716,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId55"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1744,14 +1744,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId56"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1772,14 +1772,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId57"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1800,14 +1800,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId58"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1828,14 +1828,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId59"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1856,14 +1856,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId60"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1884,14 +1884,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId61"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1912,14 +1912,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId62"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1940,14 +1940,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId63"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1968,14 +1968,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId64"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1996,14 +1996,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId65"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2024,14 +2024,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId66"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2052,14 +2052,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId67"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2080,14 +2080,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId68"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2108,14 +2108,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId69"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2136,14 +2136,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId70"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2164,14 +2164,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId71"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2192,14 +2192,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId72"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2220,14 +2220,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId73"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2248,14 +2248,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId74"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2276,14 +2276,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId75"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2304,14 +2304,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId76"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2332,14 +2332,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId77"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2360,14 +2360,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId78"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2388,14 +2388,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId79"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2416,14 +2416,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId80"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2444,14 +2444,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId81"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2472,14 +2472,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId82"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2500,14 +2500,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId83"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2528,14 +2528,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId84"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2556,14 +2556,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId85"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2584,14 +2584,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId86"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2612,14 +2612,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId87"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2640,14 +2640,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId88"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2668,14 +2668,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId89"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2696,14 +2696,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId90"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2724,14 +2724,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId91"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2752,14 +2752,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId92"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2780,14 +2780,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId93"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2808,14 +2808,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId94"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2836,14 +2836,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId95"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2864,14 +2864,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId96"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2892,14 +2892,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId97"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2920,14 +2920,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId98"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2948,14 +2948,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId99"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2976,14 +2976,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId100"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3004,14 +3004,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId101"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3032,14 +3032,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId102"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3060,14 +3060,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId103"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3088,14 +3088,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId104"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3116,14 +3116,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId105"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3144,14 +3144,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId106"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3172,14 +3172,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId107"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId107"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3200,14 +3200,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId108"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId108"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3228,14 +3228,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId109"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId109"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3256,14 +3256,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId110"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId110"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3284,14 +3284,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId111"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId111"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3312,14 +3312,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId112"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId112"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3340,14 +3340,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId113"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId113"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3368,14 +3368,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId114"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId114"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3396,14 +3396,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId115"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId115"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3424,14 +3424,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId116"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId116"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3452,14 +3452,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId117"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId117"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3480,14 +3480,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId118"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId118"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3508,14 +3508,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId119"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId119"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3536,14 +3536,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId120"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId120"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3564,14 +3564,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId121"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId121"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3592,14 +3592,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId122"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId122"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3620,14 +3620,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId123"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId123"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3648,14 +3648,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId124"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId124"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3676,14 +3676,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId125"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId125"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3704,14 +3704,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId126"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId126"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3732,14 +3732,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId127"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId127"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3760,14 +3760,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId128"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId128"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3788,14 +3788,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId129"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId129"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3816,14 +3816,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId130"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId130"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3844,14 +3844,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId131"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId131"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3872,14 +3872,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId132"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId132"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3900,14 +3900,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId133"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId133"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3928,14 +3928,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId134"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId134"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3956,14 +3956,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId135"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId135"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3984,14 +3984,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId136"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId136"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4012,14 +4012,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId137"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId137"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4040,14 +4040,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId138"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId138"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4068,14 +4068,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId139"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId139"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4096,14 +4096,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId140"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId140"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4124,14 +4124,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId141"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId141"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4152,14 +4152,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId142"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId142"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4180,14 +4180,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId143"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId143"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4208,14 +4208,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId144"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId144"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4236,14 +4236,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId145"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId145"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4264,14 +4264,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId146"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId146"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4292,14 +4292,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId147"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId147"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4320,14 +4320,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId148"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId148"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4348,14 +4348,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId149"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId149"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4376,14 +4376,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId150"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId150"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4404,14 +4404,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId151"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId151"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4432,14 +4432,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId152"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId152"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4460,14 +4460,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId153"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId153"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4488,14 +4488,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId154"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId154"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4516,14 +4516,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId155"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId155"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4544,14 +4544,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId156"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId156"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4572,14 +4572,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId157"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId157"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4600,14 +4600,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId158"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId158"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4628,14 +4628,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId159"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId159"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4656,14 +4656,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId160"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId160"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4684,14 +4684,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId161"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId161"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4712,14 +4712,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId162"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId162"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4740,14 +4740,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId163"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId163"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4768,14 +4768,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId164"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId164"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4796,14 +4796,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId165"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId165"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4824,14 +4824,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId166"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId166"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4852,14 +4852,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId167"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId167"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4880,14 +4880,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId168"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId168"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4908,14 +4908,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId169"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId169"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4936,14 +4936,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId170"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId170"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4964,14 +4964,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId171"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId171"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -4992,14 +4992,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId172"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId172"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5020,14 +5020,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId173"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId173"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5048,14 +5048,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId174"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId174"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5076,14 +5076,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId175"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId175"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5104,14 +5104,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId176"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId176"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5132,14 +5132,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId177"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId177"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5160,14 +5160,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId178"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId178"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5188,14 +5188,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId179"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId179"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5216,14 +5216,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId180"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId180"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5244,14 +5244,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId181"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId181"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5272,14 +5272,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId182"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId182"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5300,14 +5300,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId183"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId183"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5328,14 +5328,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId184"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId184"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5356,14 +5356,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId185"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId185"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5384,14 +5384,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId186"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId186"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5412,14 +5412,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId187"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId187"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5440,14 +5440,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId188"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId188"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5468,14 +5468,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId189"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId189"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5496,14 +5496,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId190"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId190"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5524,14 +5524,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId191"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId191"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5552,14 +5552,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId192"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId192"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5580,14 +5580,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId193"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId193"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5608,14 +5608,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId194"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId194"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5636,14 +5636,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId195"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId195"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5664,14 +5664,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId196"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId196"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5692,14 +5692,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId197"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId197"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5720,14 +5720,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId198"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId198"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5748,14 +5748,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId199"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId199"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5776,14 +5776,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId200"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId200"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5804,14 +5804,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId201"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId201"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5832,14 +5832,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId202"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId202"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5860,14 +5860,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId203"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId203"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5888,14 +5888,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId204"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId204"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5916,14 +5916,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId205"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId205"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5944,14 +5944,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId206"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId206"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -5972,14 +5972,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId207"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId207"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6000,14 +6000,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId208"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId208"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6028,14 +6028,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId209"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId209"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6056,14 +6056,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId210"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId210"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6084,14 +6084,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId211"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId211"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6112,14 +6112,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId212"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId212"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6140,14 +6140,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId213"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId213"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6168,14 +6168,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId214"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId214"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6196,14 +6196,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId215"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId215"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6224,14 +6224,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId216"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId216"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6252,14 +6252,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId217"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId217"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6280,14 +6280,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId218"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId218"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6308,14 +6308,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId219"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId219"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6336,14 +6336,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId220"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId220"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6364,14 +6364,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId221"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId221"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6392,14 +6392,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId222"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId222"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6420,14 +6420,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId223"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId223"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6448,14 +6448,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId224"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId224"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -6476,13 +6476,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId225"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId225"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6501,13 +6504,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId226"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId226"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6526,13 +6532,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId227"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId227"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6551,13 +6560,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId228"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId228"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6576,13 +6588,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId229"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId229"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6601,13 +6616,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId230"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId230"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6626,13 +6644,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId231"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId231"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6651,13 +6672,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId232"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId232"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6676,13 +6700,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId233"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId233"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6701,13 +6728,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId234"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId234"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6726,13 +6756,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId235"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId235"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6751,13 +6784,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId236"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId236"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6776,13 +6812,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId237"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId237"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6801,13 +6840,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId238"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId238"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6826,13 +6868,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId239"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId239"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -6851,13 +6896,864 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId240"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId240"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>31</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="241" name="Image 241" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId241"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>32</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="242" name="Image 242" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId242"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>31</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="243" name="Image 243" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId243"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>32</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="244" name="Image 244" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId244"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>31</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="245" name="Image 245" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId245"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>32</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="246" name="Image 246" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId246"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>31</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="247" name="Image 247" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId247"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>32</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="248" name="Image 248" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId248"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>31</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="249" name="Image 249" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId249"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>32</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="250" name="Image 250" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId250"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>31</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="251" name="Image 251" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId251"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>32</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="252" name="Image 252" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId252"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>31</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="253" name="Image 253" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId253"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>32</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="254" name="Image 254" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId254"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>31</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="255" name="Image 255" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId255"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>32</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="256" name="Image 256" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId256"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>33</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="257" name="Image 257" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId257"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>34</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="258" name="Image 258" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId258"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>33</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="259" name="Image 259" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId259"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>34</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="260" name="Image 260" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId260"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>33</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="261" name="Image 261" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId261"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>34</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="262" name="Image 262" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId262"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>33</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="263" name="Image 263" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId263"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>34</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="264" name="Image 264" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId264"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>33</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="265" name="Image 265" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId265"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>34</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="266" name="Image 266" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId266"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>33</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="267" name="Image 267" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId267"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>34</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="268" name="Image 268" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId268"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>33</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="269" name="Image 269" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId269"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>34</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="270" name="Image 270" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId270"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>33</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="271" name="Image 271" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId271"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>34</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="561975" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="272" name="Image 272" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId272"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -7149,12 +8045,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T17" activeCellId="0" sqref="T17"/>
@@ -7198,6 +8094,10 @@
       <c r="AC1" s="3" t="n"/>
       <c r="AD1" s="3" t="n"/>
       <c r="AE1" s="3" t="n"/>
+      <c r="AF1" s="3" t="n"/>
+      <c r="AG1" s="3" t="n"/>
+      <c r="AH1" s="3" t="n"/>
+      <c r="AI1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -7295,24 +8195,38 @@
         </is>
       </c>
       <c r="AE2" s="5" t="n"/>
+      <c r="AF2" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="AG2" s="5" t="n"/>
+      <c r="AH2" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="AI2" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="B1:AE1"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:K1"/>
     <mergeCell ref="B1:AA1"/>
+    <mergeCell ref="B1:AG1"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B1:W1"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="B1:AC1"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="B1:AC1"/>
+    <mergeCell ref="B1:I1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="B1:AE1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="B1:W1"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7325,6 +8239,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>